--- a/MFCcontrol/bin/Debug/GasFlow - test1.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow - test1.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -574,13 +574,13 @@
         <v>500</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -623,31 +623,48 @@
       <c r="A5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>800</v>
-      </c>
       <c r="D5">
         <v>200</v>
       </c>
+      <c r="E5">
+        <v>800</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
       <c r="D6">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>800</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.5</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>-1</v>
       </c>
     </row>
